--- a/Result/VAR/Manufacturing/IND.xlsx
+++ b/Result/VAR/Manufacturing/IND.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,353 +460,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.4185157691662162</v>
+        <v>16.69374857514662</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6949065698124777</v>
+        <v>16.69227074751712</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2511098473278111</v>
+        <v>16.41874885370408</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3331396454660194</v>
+        <v>16.6039372162313</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09336168460189143</v>
+        <v>16.60876429117652</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1843945973284704</v>
+        <v>16.42611259825074</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.09598004890403189</v>
+        <v>16.27707519156587</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9093255519344794</v>
+        <v>16.23800579942649</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.106560501651018</v>
+        <v>16.16313926321722</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6160868273644233</v>
+        <v>16.69886245704583</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>1.045875938277332</v>
+        <v>16.49485117600963</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.009627365804879773</v>
+        <v>15.91395673294453</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7335137322155294</v>
+        <v>16.01605675374332</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2532864427578208</v>
+        <v>16.10968983573308</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.37122226165415</v>
+        <v>16.63298357721069</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.8082524747179782</v>
+        <v>17.35763124745286</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278499757035048</v>
+        <v>17.19828698199613</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2604832104692498</v>
+        <v>16.47294399445137</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>1.28526560806649</v>
+        <v>15.92602433398816</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.366488039991031</v>
+        <v>15.55858982949081</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8716821783231925</v>
+        <v>16.06270268919287</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.222995520985851</v>
+        <v>15.64938837375653</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2111741695193885</v>
+        <v>15.81246671767336</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.09408778760246861</v>
+        <v>15.82277580339271</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>1.184864982211712</v>
+        <v>15.95006300571342</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.769721842080015</v>
+        <v>16.03114521591096</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6731919291864727</v>
+        <v>16.91918165897853</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1892028555801772</v>
+        <v>16.58450706259895</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1585469353388049</v>
+        <v>16.66877061872903</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.776953387397846</v>
+        <v>16.69928793282159</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5681823672845283</v>
+        <v>16.50961644307383</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.2414858768970998</v>
+        <v>15.88267280339234</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3764477327418199</v>
+        <v>15.69853876525039</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7057370569282284</v>
+        <v>15.27080496949527</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9399019284580685</v>
+        <v>15.1102468738348</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>15.46925328829514</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +864,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3183384406561184</v>
+        <v>15.16538317643262</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -864,7 +874,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1253952249761415</v>
+        <v>15.15073183569228</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -874,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06206985483170774</v>
+        <v>15.12395466891853</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -884,7 +894,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.02076523556824419</v>
+        <v>15.08898887598999</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -894,7 +904,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01612133391372589</v>
+        <v>15.04857248477361</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -910,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,423 +952,413 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>16.75237579755089</v>
+        <v>16.68457877835144</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>16.77044375204378</v>
+        <v>16.68419575185602</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>16.36999593737045</v>
+        <v>16.39467212405009</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6644546925096</v>
+        <v>16.59588602824662</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>16.70780360032094</v>
+        <v>16.59757862640502</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>16.41801286266626</v>
+        <v>16.41328604270906</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>16.22158380961347</v>
+        <v>16.2523562599051</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>16.20954935388915</v>
+        <v>16.20378762390939</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1015348492608</v>
+        <v>16.1293165396719</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>16.90284589656693</v>
+        <v>16.71271715232487</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>16.59759644222204</v>
+        <v>16.50055693646327</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>15.67626016051273</v>
+        <v>15.89860013263793</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>15.80079981708075</v>
+        <v>16.02400038161839</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>15.91571210784389</v>
+        <v>16.13939277658897</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>16.76413813082256</v>
+        <v>16.68991978232189</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>17.86585059655905</v>
+        <v>17.4712210737991</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>17.59634080064139</v>
+        <v>17.31568837922985</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>16.51857853000575</v>
+        <v>16.54130919410686</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>15.71931601640516</v>
+        <v>15.95558275149642</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>15.18053671327382</v>
+        <v>15.5579915886593</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>15.92702301820897</v>
+        <v>16.10402009686713</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>15.30702128315309</v>
+        <v>15.6579306901002</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>15.5587017264204</v>
+        <v>15.82889537621459</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>15.58738664870186</v>
+        <v>15.83391987153613</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>15.82724574050271</v>
+        <v>15.95400783524422</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>15.97301704470109</v>
+        <v>16.03148803871925</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>17.30365333111118</v>
+        <v>16.98423779974829</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>16.86456777544126</v>
+        <v>16.60406325767243</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>17.09867414895781</v>
+        <v>16.6606372271191</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>17.14357766689418</v>
+        <v>16.69170857561161</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>17.02993424949175</v>
+        <v>16.43554308289066</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>16.13933744469147</v>
+        <v>15.741871537443</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>15.81692300717572</v>
+        <v>15.55267746232432</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>15.25302269276287</v>
+        <v>15.06501181894495</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>15.06557011109184</v>
+        <v>14.87157744692874</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>15.58385458634904</v>
+        <v>15.25802119504917</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>15.16223713314817</v>
+        <v>14.91621529978475</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>15.01823875014704</v>
+        <v>14.58399189597616</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>14.88153066744756</v>
+        <v>14.35049850627647</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>13.47361810745156</v>
+        <v>13.63583590498246</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>13.68338528944649</v>
+        <v>14.24530912303092</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>14.07022547391186</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +1406,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1264178297967915</v>
+        <v>14.98554761906389</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07337788568998146</v>
+        <v>15.84730033002362</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1426,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.02894495767463082</v>
+        <v>16.60219084422058</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02100809334574275</v>
+        <v>17.21096277148818</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.003008808739237645</v>
+        <v>17.64944078431874</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
